--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_TRAM.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_TRAM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/Downloads/passenger data/done/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CD00B8-8CA5-634D-8E5D-B91C541729AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DC2797-666C-424A-8DC7-2AAE2E80CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="81">
   <si>
     <t>Name:</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Same as rail</t>
   </si>
   <si>
-    <t>Safe operational speed within cities.</t>
-  </si>
-  <si>
     <t>Tram vkm</t>
   </si>
   <si>
@@ -270,6 +267,15 @@
   </si>
   <si>
     <t>Trams</t>
+  </si>
+  <si>
+    <t>Federal Office of Spatial Development, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>https://www.are.admin.ch/are/en/home/mobility/data/mtmc.html</t>
+  </si>
+  <si>
+    <t>Table G3.3.1.6</t>
   </si>
 </sst>
 </file>
@@ -373,7 +379,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -731,8 +747,8 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L236" sqref="L236"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -762,7 +778,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">TODAY()</f>
-        <v>45030</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1005,17 +1021,19 @@
         <v>49</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>15.6</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1049,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1083,7 +1101,7 @@
         <v>57</v>
       </c>
       <c r="L15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1117,7 +1135,7 @@
         <v>57</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1151,7 +1169,7 @@
         <v>57</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1185,7 +1203,7 @@
         <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1219,7 +1237,7 @@
         <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1253,7 +1271,7 @@
         <v>57</v>
       </c>
       <c r="L20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1287,7 +1305,7 @@
         <v>57</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1321,7 +1339,7 @@
         <v>57</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1355,7 +1373,7 @@
         <v>57</v>
       </c>
       <c r="L23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1389,7 +1407,7 @@
         <v>57</v>
       </c>
       <c r="L24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1423,7 +1441,7 @@
         <v>57</v>
       </c>
       <c r="L25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1457,7 +1475,7 @@
         <v>57</v>
       </c>
       <c r="L26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1491,7 +1509,7 @@
         <v>57</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1525,7 +1543,7 @@
         <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1559,7 +1577,7 @@
         <v>57</v>
       </c>
       <c r="L29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1593,7 +1611,7 @@
         <v>57</v>
       </c>
       <c r="L30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1627,7 +1645,7 @@
         <v>57</v>
       </c>
       <c r="L31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1661,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="L32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1695,7 +1713,7 @@
         <v>57</v>
       </c>
       <c r="L33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1729,7 +1747,7 @@
         <v>57</v>
       </c>
       <c r="L34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1763,7 +1781,7 @@
         <v>57</v>
       </c>
       <c r="L35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1797,7 +1815,7 @@
         <v>57</v>
       </c>
       <c r="L36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1831,7 +1849,7 @@
         <v>57</v>
       </c>
       <c r="L37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1865,7 +1883,7 @@
         <v>57</v>
       </c>
       <c r="L38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1899,7 +1917,7 @@
         <v>57</v>
       </c>
       <c r="L39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1933,7 +1951,7 @@
         <v>57</v>
       </c>
       <c r="L40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1967,7 +1985,7 @@
         <v>57</v>
       </c>
       <c r="L41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2001,7 +2019,7 @@
         <v>57</v>
       </c>
       <c r="L42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2035,7 +2053,7 @@
         <v>57</v>
       </c>
       <c r="L43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2069,7 +2087,7 @@
         <v>57</v>
       </c>
       <c r="L44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2103,7 +2121,7 @@
         <v>57</v>
       </c>
       <c r="L45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2134,10 +2152,10 @@
         <v>56</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2168,10 +2186,10 @@
         <v>56</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2202,10 +2220,10 @@
         <v>56</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2236,10 +2254,10 @@
         <v>56</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2270,10 +2288,10 @@
         <v>56</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2304,10 +2322,10 @@
         <v>56</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2338,10 +2356,10 @@
         <v>56</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2372,10 +2390,10 @@
         <v>56</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2406,10 +2424,10 @@
         <v>56</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2440,10 +2458,10 @@
         <v>56</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2474,10 +2492,10 @@
         <v>56</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2508,10 +2526,10 @@
         <v>56</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2542,10 +2560,10 @@
         <v>56</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2576,10 +2594,10 @@
         <v>56</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2610,10 +2628,10 @@
         <v>56</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2644,10 +2662,10 @@
         <v>56</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2678,10 +2696,10 @@
         <v>56</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2712,10 +2730,10 @@
         <v>56</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2746,10 +2764,10 @@
         <v>56</v>
       </c>
       <c r="K64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L64" t="s">
         <v>62</v>
-      </c>
-      <c r="L64" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2780,10 +2798,10 @@
         <v>56</v>
       </c>
       <c r="K65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L65" t="s">
         <v>62</v>
-      </c>
-      <c r="L65" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2814,10 +2832,10 @@
         <v>56</v>
       </c>
       <c r="K66" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L66" t="s">
         <v>62</v>
-      </c>
-      <c r="L66" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2848,10 +2866,10 @@
         <v>56</v>
       </c>
       <c r="K67" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L67" t="s">
         <v>62</v>
-      </c>
-      <c r="L67" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2882,10 +2900,10 @@
         <v>56</v>
       </c>
       <c r="K68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L68" t="s">
         <v>62</v>
-      </c>
-      <c r="L68" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2916,10 +2934,10 @@
         <v>56</v>
       </c>
       <c r="K69" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L69" t="s">
         <v>62</v>
-      </c>
-      <c r="L69" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2950,10 +2968,10 @@
         <v>56</v>
       </c>
       <c r="K70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L70" t="s">
         <v>62</v>
-      </c>
-      <c r="L70" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2984,10 +3002,10 @@
         <v>56</v>
       </c>
       <c r="K71" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L71" t="s">
         <v>62</v>
-      </c>
-      <c r="L71" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -3018,10 +3036,10 @@
         <v>56</v>
       </c>
       <c r="K72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L72" t="s">
         <v>62</v>
-      </c>
-      <c r="L72" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -3052,10 +3070,10 @@
         <v>56</v>
       </c>
       <c r="K73" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L73" t="s">
         <v>62</v>
-      </c>
-      <c r="L73" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -3086,10 +3104,10 @@
         <v>56</v>
       </c>
       <c r="K74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L74" t="s">
         <v>62</v>
-      </c>
-      <c r="L74" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3120,10 +3138,10 @@
         <v>56</v>
       </c>
       <c r="K75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L75" t="s">
         <v>62</v>
-      </c>
-      <c r="L75" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3154,10 +3172,10 @@
         <v>56</v>
       </c>
       <c r="K76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L76" t="s">
         <v>62</v>
-      </c>
-      <c r="L76" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3232,7 +3250,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3264,7 +3282,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3296,7 +3314,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3328,7 +3346,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3360,7 +3378,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3392,7 +3410,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3424,7 +3442,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3456,7 +3474,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3488,7 +3506,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3520,7 +3538,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3552,7 +3570,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3584,7 +3602,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3616,7 +3634,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3648,7 +3666,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3680,7 +3698,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3712,7 +3730,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3744,7 +3762,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3776,7 +3794,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3808,7 +3826,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3840,7 +3858,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3872,7 +3890,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3904,7 +3922,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3936,7 +3954,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3968,7 +3986,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -4000,7 +4018,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4032,7 +4050,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4064,7 +4082,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4096,7 +4114,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4128,7 +4146,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4160,7 +4178,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4233,7 +4251,7 @@
         <v>54</v>
       </c>
       <c r="L111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4264,7 +4282,7 @@
         <v>54</v>
       </c>
       <c r="L112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4295,7 +4313,7 @@
         <v>54</v>
       </c>
       <c r="L113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4326,7 +4344,7 @@
         <v>54</v>
       </c>
       <c r="L114" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4357,7 +4375,7 @@
         <v>54</v>
       </c>
       <c r="L115" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4388,7 +4406,7 @@
         <v>54</v>
       </c>
       <c r="L116" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4419,7 +4437,7 @@
         <v>54</v>
       </c>
       <c r="L117" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4450,7 +4468,7 @@
         <v>54</v>
       </c>
       <c r="L118" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4481,7 +4499,7 @@
         <v>54</v>
       </c>
       <c r="L119" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4512,7 +4530,7 @@
         <v>54</v>
       </c>
       <c r="L120" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4543,7 +4561,7 @@
         <v>54</v>
       </c>
       <c r="L121" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4574,7 +4592,7 @@
         <v>54</v>
       </c>
       <c r="L122" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4605,7 +4623,7 @@
         <v>54</v>
       </c>
       <c r="L123" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4636,7 +4654,7 @@
         <v>54</v>
       </c>
       <c r="L124" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4667,7 +4685,7 @@
         <v>54</v>
       </c>
       <c r="L125" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4698,7 +4716,7 @@
         <v>54</v>
       </c>
       <c r="L126" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4729,7 +4747,7 @@
         <v>54</v>
       </c>
       <c r="L127" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4760,7 +4778,7 @@
         <v>54</v>
       </c>
       <c r="L128" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4791,7 +4809,7 @@
         <v>54</v>
       </c>
       <c r="L129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4822,7 +4840,7 @@
         <v>54</v>
       </c>
       <c r="L130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4853,7 +4871,7 @@
         <v>54</v>
       </c>
       <c r="L131" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4884,7 +4902,7 @@
         <v>54</v>
       </c>
       <c r="L132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4915,7 +4933,7 @@
         <v>54</v>
       </c>
       <c r="L133" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4946,7 +4964,7 @@
         <v>54</v>
       </c>
       <c r="L134" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -4977,7 +4995,7 @@
         <v>54</v>
       </c>
       <c r="L135" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -5008,7 +5026,7 @@
         <v>54</v>
       </c>
       <c r="L136" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5039,7 +5057,7 @@
         <v>54</v>
       </c>
       <c r="L137" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5070,7 +5088,7 @@
         <v>54</v>
       </c>
       <c r="L138" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5101,7 +5119,7 @@
         <v>54</v>
       </c>
       <c r="L139" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5132,7 +5150,7 @@
         <v>54</v>
       </c>
       <c r="L140" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5160,7 +5178,7 @@
         <v>54</v>
       </c>
       <c r="L141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5415,11 +5433,11 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K154" s="2"/>
       <c r="L154" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -6034,16 +6052,16 @@
         <v>2049999.9999999998</v>
       </c>
       <c r="H186" t="s">
+        <v>66</v>
+      </c>
+      <c r="J186" t="s">
+        <v>68</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L186" t="s">
         <v>67</v>
-      </c>
-      <c r="J186" t="s">
-        <v>69</v>
-      </c>
-      <c r="K186" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L186" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -7000,13 +7018,13 @@
         <v>115200</v>
       </c>
       <c r="H236" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J236" t="s">
         <v>54</v>
       </c>
       <c r="L236" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -9523,16 +9541,16 @@
         <v>5.584804928131417E-2</v>
       </c>
       <c r="H334" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J334" t="s">
         <v>56</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L334" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -9653,16 +9671,16 @@
         <v>6.0410480349344979E-2</v>
       </c>
       <c r="H339" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J339" t="s">
         <v>56</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L339" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
@@ -9784,16 +9802,16 @@
         <v>6.1177419354838704E-2</v>
       </c>
       <c r="H344" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J344" t="s">
         <v>56</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L344" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
@@ -9822,16 +9840,16 @@
         <v>6.0601293103448278E-2</v>
       </c>
       <c r="H345" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J345" t="s">
         <v>56</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L345" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
@@ -9860,16 +9878,16 @@
         <v>6.1449115044247785E-2</v>
       </c>
       <c r="H346" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J346" t="s">
         <v>56</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L346" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
@@ -9898,16 +9916,16 @@
         <v>6.1153172866520784E-2</v>
       </c>
       <c r="H347" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J347" t="s">
         <v>56</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L347" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
@@ -9936,16 +9954,16 @@
         <v>8.9935760171306209E-2</v>
       </c>
       <c r="H348" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J348" t="s">
         <v>56</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L348" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
@@ -9974,16 +9992,16 @@
         <v>5.9012793176972278E-2</v>
       </c>
       <c r="H349" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J349" t="s">
         <v>56</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L349" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -10012,16 +10030,16 @@
         <v>5.9364425162689805E-2</v>
       </c>
       <c r="H350" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J350" t="s">
         <v>56</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L350" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
@@ -10050,16 +10068,16 @@
         <v>5.7225738396624475E-2</v>
       </c>
       <c r="H351" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J351" t="s">
         <v>56</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L351" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
@@ -10088,16 +10106,16 @@
         <v>5.6194503171247356E-2</v>
       </c>
       <c r="H352" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J352" t="s">
         <v>56</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L352" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
@@ -10126,16 +10144,16 @@
         <v>5.5247524752475248E-2</v>
       </c>
       <c r="H353" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J353" t="s">
         <v>56</v>
       </c>
       <c r="K353" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L353" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
@@ -10164,16 +10182,16 @@
         <v>5.5399610136452247E-2</v>
       </c>
       <c r="H354" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J354" t="s">
         <v>56</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L354" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
@@ -10202,16 +10220,16 @@
         <v>5.8876190476190478E-2</v>
       </c>
       <c r="H355" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J355" t="s">
         <v>56</v>
       </c>
       <c r="K355" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L355" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
@@ -10240,16 +10258,16 @@
         <v>5.7907801418439708E-2</v>
       </c>
       <c r="H356" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J356" t="s">
         <v>56</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L356" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
@@ -10278,16 +10296,16 @@
         <v>5.6363636363636366E-2</v>
       </c>
       <c r="H357" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J357" t="s">
         <v>56</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L357" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
@@ -10316,16 +10334,16 @@
         <v>5.766550522648084E-2</v>
       </c>
       <c r="H358" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J358" t="s">
         <v>56</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L358" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
@@ -10354,16 +10372,16 @@
         <v>5.7499999999999996E-2</v>
       </c>
       <c r="H359" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J359" t="s">
         <v>56</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L359" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -10392,16 +10410,16 @@
         <v>5.582055749128919E-2</v>
       </c>
       <c r="H360" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J360" t="s">
         <v>56</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L360" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -10430,16 +10448,16 @@
         <v>5.9302325581395345E-2</v>
       </c>
       <c r="H361" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J361" t="s">
         <v>56</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L361" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -10468,16 +10486,16 @@
         <v>5.9684210526315798E-2</v>
       </c>
       <c r="H362" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J362" t="s">
         <v>56</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L362" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -10506,16 +10524,16 @@
         <v>6.1443037974683548E-2</v>
       </c>
       <c r="H363" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J363" t="s">
         <v>56</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L363" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -10544,16 +10562,16 @@
         <v>6.1315018315018316E-2</v>
       </c>
       <c r="H364" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J364" t="s">
         <v>56</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L364" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -10582,16 +10600,16 @@
         <v>6.1549549549549547E-2</v>
       </c>
       <c r="H365" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J365" t="s">
         <v>56</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L365" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -10809,10 +10827,10 @@
         <v>56</v>
       </c>
       <c r="K374" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L374" t="s">
         <v>77</v>
-      </c>
-      <c r="L374" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -10846,10 +10864,10 @@
         <v>56</v>
       </c>
       <c r="K375" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L375" t="s">
         <v>77</v>
-      </c>
-      <c r="L375" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -10883,10 +10901,10 @@
         <v>56</v>
       </c>
       <c r="K376" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L376" t="s">
         <v>77</v>
-      </c>
-      <c r="L376" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -10920,10 +10938,10 @@
         <v>56</v>
       </c>
       <c r="K377" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L377" t="s">
         <v>77</v>
-      </c>
-      <c r="L377" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -10957,10 +10975,10 @@
         <v>56</v>
       </c>
       <c r="K378" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L378" t="s">
         <v>77</v>
-      </c>
-      <c r="L378" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -10994,10 +11012,10 @@
         <v>56</v>
       </c>
       <c r="K379" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L379" t="s">
         <v>77</v>
-      </c>
-      <c r="L379" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -11031,10 +11049,10 @@
         <v>56</v>
       </c>
       <c r="K380" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L380" t="s">
         <v>77</v>
-      </c>
-      <c r="L380" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -11068,10 +11086,10 @@
         <v>56</v>
       </c>
       <c r="K381" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L381" t="s">
         <v>77</v>
-      </c>
-      <c r="L381" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -11105,10 +11123,10 @@
         <v>56</v>
       </c>
       <c r="K382" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L382" t="s">
         <v>77</v>
-      </c>
-      <c r="L382" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -11142,10 +11160,10 @@
         <v>56</v>
       </c>
       <c r="K383" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L383" t="s">
         <v>77</v>
-      </c>
-      <c r="L383" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -11179,10 +11197,10 @@
         <v>56</v>
       </c>
       <c r="K384" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L384" t="s">
         <v>77</v>
-      </c>
-      <c r="L384" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -11216,10 +11234,10 @@
         <v>56</v>
       </c>
       <c r="K385" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L385" t="s">
         <v>77</v>
-      </c>
-      <c r="L385" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -11253,10 +11271,10 @@
         <v>56</v>
       </c>
       <c r="K386" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L386" t="s">
         <v>77</v>
-      </c>
-      <c r="L386" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -11290,10 +11308,10 @@
         <v>56</v>
       </c>
       <c r="K387" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L387" t="s">
         <v>77</v>
-      </c>
-      <c r="L387" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -11327,10 +11345,10 @@
         <v>56</v>
       </c>
       <c r="K388" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L388" t="s">
         <v>77</v>
-      </c>
-      <c r="L388" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -11364,10 +11382,10 @@
         <v>56</v>
       </c>
       <c r="K389" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L389" t="s">
         <v>77</v>
-      </c>
-      <c r="L389" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -11401,10 +11419,10 @@
         <v>56</v>
       </c>
       <c r="K390" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L390" t="s">
         <v>77</v>
-      </c>
-      <c r="L390" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -11438,10 +11456,10 @@
         <v>56</v>
       </c>
       <c r="K391" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L391" t="s">
         <v>77</v>
-      </c>
-      <c r="L391" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
@@ -11475,10 +11493,10 @@
         <v>56</v>
       </c>
       <c r="K392" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L392" t="s">
         <v>77</v>
-      </c>
-      <c r="L392" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -11512,10 +11530,10 @@
         <v>56</v>
       </c>
       <c r="K393" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L393" t="s">
         <v>77</v>
-      </c>
-      <c r="L393" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -11549,10 +11567,10 @@
         <v>56</v>
       </c>
       <c r="K394" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L394" t="s">
         <v>77</v>
-      </c>
-      <c r="L394" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -11586,10 +11604,10 @@
         <v>56</v>
       </c>
       <c r="K395" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L395" t="s">
         <v>77</v>
-      </c>
-      <c r="L395" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -11623,10 +11641,10 @@
         <v>56</v>
       </c>
       <c r="K396" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L396" t="s">
         <v>77</v>
-      </c>
-      <c r="L396" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -11660,20 +11678,25 @@
         <v>56</v>
       </c>
       <c r="K397" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L397" t="s">
         <v>77</v>
-      </c>
-      <c r="L397" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A236:G236 I236:L236 A237:L397">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"TODO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:L12 A14:L235 A13:I13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TODO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:L235">
+  <conditionalFormatting sqref="J13:L13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TODO"</formula>
     </cfRule>
